--- a/com/x_train.xlsx
+++ b/com/x_train.xlsx
@@ -453,1769 +453,1769 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EMP9449</t>
+          <t>EMP9883</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.634496808052063</v>
+        <v>0.5906046628952026</v>
       </c>
       <c r="C2" t="n">
-        <v>93.36988310538933</v>
+        <v>53.69979834060008</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EMP9883</t>
+          <t>EMP9479</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5429896116256714</v>
+        <v>0.6038213968276978</v>
       </c>
       <c r="C3" t="n">
-        <v>70.1854062608187</v>
+        <v>63.21776140948572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EMP9479</t>
+          <t>EMP9361</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5752179026603699</v>
+        <v>0.6615128517150879</v>
       </c>
       <c r="C4" t="n">
-        <v>69.36835366541622</v>
+        <v>107.6035860500749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EMP9361</t>
+          <t>EMP9041</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6200819611549377</v>
+        <v>0.6040422916412354</v>
       </c>
       <c r="C5" t="n">
-        <v>76.77702995464912</v>
+        <v>86.95916629721904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EMP9041</t>
+          <t>EMP9666</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5830950736999512</v>
+        <v>0.5784246921539307</v>
       </c>
       <c r="C6" t="n">
-        <v>81.57837294931915</v>
+        <v>83.94825338327489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EMP9798</t>
+          <t>EMP9221</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5454145669937134</v>
+        <v>0.6545694470405579</v>
       </c>
       <c r="C7" t="n">
-        <v>84.44301299408346</v>
+        <v>74.32727508370488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EMP9666</t>
+          <t>EMP9292</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5670222043991089</v>
+        <v>0.6310384273529053</v>
       </c>
       <c r="C8" t="n">
-        <v>69.01986172343456</v>
+        <v>93.11805649784206</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EMP9221</t>
+          <t>EMP9443</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6083795428276062</v>
+        <v>0.6308994293212891</v>
       </c>
       <c r="C9" t="n">
-        <v>80.69577773581769</v>
+        <v>88.50006540589251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EMP9292</t>
+          <t>EMP9924</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5726349353790283</v>
+        <v>0.5089349746704102</v>
       </c>
       <c r="C10" t="n">
-        <v>91.15560156081456</v>
+        <v>93.92272956374624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EMP9443</t>
+          <t>EMP9887</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.603090226650238</v>
+        <v>0.5844386219978333</v>
       </c>
       <c r="C11" t="n">
-        <v>69.96907975238462</v>
+        <v>89.66147014674264</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EMP9924</t>
+          <t>EMP9491</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5937709808349609</v>
+        <v>0.5250140428543091</v>
       </c>
       <c r="C12" t="n">
-        <v>80.72801516929961</v>
+        <v>95.44156054555667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EMP9271</t>
+          <t>EMP9602</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5428091287612915</v>
+        <v>0.579228937625885</v>
       </c>
       <c r="C13" t="n">
-        <v>81.88465280546913</v>
+        <v>73.28912891506265</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EMP9887</t>
+          <t>EMP9862</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.512101948261261</v>
+        <v>0.6666561365127563</v>
       </c>
       <c r="C14" t="n">
-        <v>72.0721168820581</v>
+        <v>84.9112798050614</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EMP9491</t>
+          <t>EMP9966</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4775613844394684</v>
+        <v>0.5399317741394043</v>
       </c>
       <c r="C15" t="n">
-        <v>89.20848637965142</v>
+        <v>103.1059020352892</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EMP9602</t>
+          <t>EMP9179</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5230404138565063</v>
+        <v>0.4993122816085815</v>
       </c>
       <c r="C16" t="n">
-        <v>81.51625945674955</v>
+        <v>73.92904185951581</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EMP9862</t>
+          <t>EMP9641</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5593239068984985</v>
+        <v>0.6252591609954834</v>
       </c>
       <c r="C17" t="n">
-        <v>63.27505191279712</v>
+        <v>104.5853744932656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EMP9213</t>
+          <t>EMP9342</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5409594178199768</v>
+        <v>0.6174652576446533</v>
       </c>
       <c r="C18" t="n">
-        <v>69.22211084819476</v>
+        <v>103.5729019357942</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EMP9966</t>
+          <t>EMP9015</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5010242462158203</v>
+        <v>0.677757740020752</v>
       </c>
       <c r="C19" t="n">
-        <v>74.83546449152631</v>
+        <v>76.60045801650431</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EMP9179</t>
+          <t>EMP9821</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5286953449249268</v>
+        <v>0.5320676565170288</v>
       </c>
       <c r="C20" t="n">
-        <v>71.28362064020929</v>
+        <v>83.57176557123823</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EMP9641</t>
+          <t>EMP9854</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5267482995986938</v>
+        <v>0.6453369855880737</v>
       </c>
       <c r="C21" t="n">
-        <v>81.42894449569981</v>
+        <v>94.7052248803468</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EMP9342</t>
+          <t>EMP9061</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.572554886341095</v>
+        <v>0.6366678476333618</v>
       </c>
       <c r="C22" t="n">
-        <v>78.95973703334538</v>
+        <v>80.41965090154548</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EMP9164</t>
+          <t>EMP9552</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4974719882011414</v>
+        <v>0.5833883285522461</v>
       </c>
       <c r="C23" t="n">
-        <v>80.9453025724729</v>
+        <v>93.27155194613526</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EMP9015</t>
+          <t>EMP9191</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5480453968048096</v>
+        <v>0.5994387865066528</v>
       </c>
       <c r="C24" t="n">
-        <v>74.17992378872066</v>
+        <v>89.0086204267507</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EMP9821</t>
+          <t>EMP9353</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5554401874542236</v>
+        <v>0.6337703466415405</v>
       </c>
       <c r="C25" t="n">
-        <v>81.63275704476088</v>
+        <v>87.33291837799214</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EMP9854</t>
+          <t>EMP9677</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5396115183830261</v>
+        <v>0.5102736949920654</v>
       </c>
       <c r="C26" t="n">
-        <v>86.77243775309404</v>
+        <v>82.8224548171443</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EMP9061</t>
+          <t>EMP9023</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5914562344551086</v>
+        <v>0.5085364580154419</v>
       </c>
       <c r="C27" t="n">
-        <v>74.98931535089929</v>
+        <v>111.801388775161</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EMP9353</t>
+          <t>EMP9128</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6535149812698364</v>
+        <v>0.598788857460022</v>
       </c>
       <c r="C28" t="n">
-        <v>64.66101684368329</v>
+        <v>107.3223786851116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EMP9677</t>
+          <t>EMP9892</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5277150869369507</v>
+        <v>0.5887657999992371</v>
       </c>
       <c r="C29" t="n">
-        <v>72.8880168061624</v>
+        <v>77.32365646579429</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EMP9023</t>
+          <t>EMP9045</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5149669647216797</v>
+        <v>0.5893638730049133</v>
       </c>
       <c r="C30" t="n">
-        <v>84.21091439906942</v>
+        <v>88.41385370166161</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EMP9384</t>
+          <t>EMP9654</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5687479376792908</v>
+        <v>0.6295003294944763</v>
       </c>
       <c r="C31" t="n">
-        <v>71.34404914189585</v>
+        <v>89.77907585740921</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EMP9128</t>
+          <t>EMP9621</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4900415539741516</v>
+        <v>0.5233286619186401</v>
       </c>
       <c r="C32" t="n">
-        <v>84.44892433288597</v>
+        <v>78.77097095676488</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EMP9892</t>
+          <t>EMP9771</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.5769027471542358</v>
+        <v>0.5487163662910461</v>
       </c>
       <c r="C33" t="n">
-        <v>73.05651416403427</v>
+        <v>82.66871953996288</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EMP9561</t>
+          <t>EMP9379</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5421314239501953</v>
+        <v>0.5570250749588013</v>
       </c>
       <c r="C34" t="n">
-        <v>84.90788169612966</v>
+        <v>83.30977827293653</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EMP9045</t>
+          <t>EMP9894</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.543836772441864</v>
+        <v>0.6940459012985229</v>
       </c>
       <c r="C35" t="n">
-        <v>96.02166221250965</v>
+        <v>96.12721390533635</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EMP9654</t>
+          <t>EMP9953</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.4719280600547791</v>
+        <v>0.5758587718009949</v>
       </c>
       <c r="C36" t="n">
-        <v>83.00839938766616</v>
+        <v>72.24382455628862</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EMP9621</t>
+          <t>EMP9793</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4958389401435852</v>
+        <v>0.4978823363780975</v>
       </c>
       <c r="C37" t="n">
-        <v>65.92718691436679</v>
+        <v>53.06055030569694</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EMP9771</t>
+          <t>EMP9486</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.5768387913703918</v>
+        <v>0.647988498210907</v>
       </c>
       <c r="C38" t="n">
-        <v>73.49202787568801</v>
+        <v>80.21632979581616</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EMP9894</t>
+          <t>EMP9764</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.565624475479126</v>
+        <v>0.5162319540977478</v>
       </c>
       <c r="C39" t="n">
-        <v>72.98490590208128</v>
+        <v>81.23234017744498</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EMP9953</t>
+          <t>EMP9842</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.574309229850769</v>
+        <v>0.5761455297470093</v>
       </c>
       <c r="C40" t="n">
-        <v>65.05159674439743</v>
+        <v>78.25382351753076</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EMP9486</t>
+          <t>EMP9832</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.5932311415672302</v>
+        <v>0.4925014078617096</v>
       </c>
       <c r="C41" t="n">
-        <v>74.09357248456203</v>
+        <v>81.29601896397921</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EMP9764</t>
+          <t>EMP9516</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4795510470867157</v>
+        <v>0.4927939176559448</v>
       </c>
       <c r="C42" t="n">
-        <v>75.11943840383334</v>
+        <v>90.31115266341504</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EMP9842</t>
+          <t>EMP9372</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.5579228401184082</v>
+        <v>0.577333927154541</v>
       </c>
       <c r="C43" t="n">
-        <v>73.75567896800311</v>
+        <v>104.5398078200644</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EMP9832</t>
+          <t>EMP9052</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.5531303286552429</v>
+        <v>0.585699200630188</v>
       </c>
       <c r="C44" t="n">
-        <v>78.02735498076025</v>
+        <v>88.39543731860917</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EMP9631</t>
+          <t>EMP9417</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5448052287101746</v>
+        <v>0.5113045573234558</v>
       </c>
       <c r="C45" t="n">
-        <v>80.66895477558913</v>
+        <v>60.63112166938806</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EMP9516</t>
+          <t>EMP9404</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5472357273101807</v>
+        <v>0.4683510363101959</v>
       </c>
       <c r="C46" t="n">
-        <v>70.20513994986986</v>
+        <v>66.13415777059872</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EMP9405</t>
+          <t>EMP9613</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.5876806974411011</v>
+        <v>0.6502342820167542</v>
       </c>
       <c r="C47" t="n">
-        <v>78.70911442766509</v>
+        <v>102.4543983408271</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EMP9122</t>
+          <t>EMP9174</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.4839253425598145</v>
+        <v>0.6697515249252319</v>
       </c>
       <c r="C48" t="n">
-        <v>86.8285364635568</v>
+        <v>85.81462340302303</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EMP9052</t>
+          <t>EMP9517</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.5520637035369873</v>
+        <v>0.6296989321708679</v>
       </c>
       <c r="C49" t="n">
-        <v>70.1949598075048</v>
+        <v>78.84205664709562</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EMP9404</t>
+          <t>EMP9882</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4802896678447723</v>
+        <v>0.6623926162719727</v>
       </c>
       <c r="C50" t="n">
-        <v>68.68720254251411</v>
+        <v>101.6182474921432</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EMP9613</t>
+          <t>EMP9082</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.5820178985595703</v>
+        <v>0.4717779457569122</v>
       </c>
       <c r="C51" t="n">
-        <v>74.92471865415675</v>
+        <v>67.34948033219169</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EMP9174</t>
+          <t>EMP9430</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.5853452682495117</v>
+        <v>0.4484717845916748</v>
       </c>
       <c r="C52" t="n">
-        <v>77.31621576742479</v>
+        <v>87.27243817720566</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EMP9517</t>
+          <t>EMP9543</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.5191336870193481</v>
+        <v>0.6039619445800781</v>
       </c>
       <c r="C53" t="n">
-        <v>79.52283068155691</v>
+        <v>98.26000882355284</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EMP9882</t>
+          <t>EMP9522</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.5947030782699585</v>
+        <v>0.7270138263702393</v>
       </c>
       <c r="C54" t="n">
-        <v>81.7346685803428</v>
+        <v>81.06004035634797</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EMP9082</t>
+          <t>EMP9871</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.4633798003196716</v>
+        <v>0.6019207239151001</v>
       </c>
       <c r="C55" t="n">
-        <v>84.31009700881145</v>
+        <v>95.86695077270825</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EMP9430</t>
+          <t>EMP9498</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.4843214154243469</v>
+        <v>0.6026602983474731</v>
       </c>
       <c r="C56" t="n">
-        <v>76.23815669608031</v>
+        <v>74.49124975175525</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EMP9731</t>
+          <t>EMP9895</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.5735634565353394</v>
+        <v>0.6493949890136719</v>
       </c>
       <c r="C57" t="n">
-        <v>71.46761868136984</v>
+        <v>82.36194729202582</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EMP9871</t>
+          <t>EMP9901</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.5838958024978638</v>
+        <v>0.6662739515304565</v>
       </c>
       <c r="C58" t="n">
-        <v>82.35465374498145</v>
+        <v>95.9871510458306</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EMP9498</t>
+          <t>EMP9717</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.499815821647644</v>
+        <v>0.6698733568191528</v>
       </c>
       <c r="C59" t="n">
-        <v>76.71423953770737</v>
+        <v>84.29043445218946</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EMP9895</t>
+          <t>EMP9371</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.6092933416366577</v>
+        <v>0.48021000623703</v>
       </c>
       <c r="C60" t="n">
-        <v>76.59792198057107</v>
+        <v>94.24838560614837</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EMP9901</t>
+          <t>EMP9283</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5386366248130798</v>
+        <v>0.6610239744186401</v>
       </c>
       <c r="C61" t="n">
-        <v>91.78987487947333</v>
+        <v>109.4778545767033</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EMP9717</t>
+          <t>EMP9922</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.6112639904022217</v>
+        <v>0.6076554656028748</v>
       </c>
       <c r="C62" t="n">
-        <v>98.57491168174026</v>
+        <v>112.322873533064</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EMP9446</t>
+          <t>EMP9612</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.435394823551178</v>
+        <v>0.5672100186347961</v>
       </c>
       <c r="C63" t="n">
-        <v>74.23357156465397</v>
+        <v>59.57656276577224</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EMP9371</t>
+          <t>EMP9715</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.4808867275714874</v>
+        <v>0.6262928247451782</v>
       </c>
       <c r="C64" t="n">
-        <v>71.19991652601597</v>
+        <v>92.8059877943075</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EMP9283</t>
+          <t>EMP9406</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.5790203213691711</v>
+        <v>0.5707912445068359</v>
       </c>
       <c r="C65" t="n">
-        <v>90.171712501283</v>
+        <v>103.0656064673055</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EMP9922</t>
+          <t>EMP9501</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.5154379606246948</v>
+        <v>0.6546012163162231</v>
       </c>
       <c r="C66" t="n">
-        <v>85.80012253609786</v>
+        <v>70.31559584867723</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EMP9612</t>
+          <t>EMP9391</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.5893065333366394</v>
+        <v>0.6392447948455811</v>
       </c>
       <c r="C67" t="n">
-        <v>79.67208055545018</v>
+        <v>95.35065145082426</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EMP9406</t>
+          <t>EMP9211</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4832866191864014</v>
+        <v>0.4946739971637726</v>
       </c>
       <c r="C68" t="n">
-        <v>87.01489989514286</v>
+        <v>78.16237078148278</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EMP9501</t>
+          <t>EMP9977</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.5506374835968018</v>
+        <v>0.6295468807220459</v>
       </c>
       <c r="C69" t="n">
-        <v>70.79038649419815</v>
+        <v>93.78625593137781</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EMP9211</t>
+          <t>EMP9442</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.511965274810791</v>
+        <v>0.6510359048843384</v>
       </c>
       <c r="C70" t="n">
-        <v>67.09096947298789</v>
+        <v>67.58540695477099</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EMP9977</t>
+          <t>EMP9357</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.5643636584281921</v>
+        <v>0.5126422643661499</v>
       </c>
       <c r="C71" t="n">
-        <v>95.5065001981593</v>
+        <v>54.34480884940899</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EMP9720</t>
+          <t>EMP9651</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.5848228931427002</v>
+        <v>0.648728609085083</v>
       </c>
       <c r="C72" t="n">
-        <v>83.4773262886019</v>
+        <v>77.20555497345777</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EMP9357</t>
+          <t>EMP9990</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.514094352722168</v>
+        <v>0.5619533658027649</v>
       </c>
       <c r="C73" t="n">
-        <v>77.46245789262431</v>
+        <v>96.66418841171173</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EMP9272</t>
+          <t>EMP9040</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.5464452505111694</v>
+        <v>0.5550246834754944</v>
       </c>
       <c r="C74" t="n">
-        <v>81.30003030811923</v>
+        <v>69.02811096960073</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EMP9599</t>
+          <t>EMP9526</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.5833464860916138</v>
+        <v>0.5686579942703247</v>
       </c>
       <c r="C75" t="n">
-        <v>70.66290912156174</v>
+        <v>71.35223304939245</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EMP9651</t>
+          <t>EMP9225</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.5447067022323608</v>
+        <v>0.5471996068954468</v>
       </c>
       <c r="C76" t="n">
-        <v>78.21575166029034</v>
+        <v>78.05571767194802</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EMP9990</t>
+          <t>EMP9481</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5841847658157349</v>
+        <v>0.565508246421814</v>
       </c>
       <c r="C77" t="n">
-        <v>62.31676247476188</v>
+        <v>92.2354036261091</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EMP9040</t>
+          <t>EMP9724</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.5759595632553101</v>
+        <v>0.4943343698978424</v>
       </c>
       <c r="C78" t="n">
-        <v>70.20498771679743</v>
+        <v>88.45465794040707</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EMP9526</t>
+          <t>EMP9502</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.4175837934017181</v>
+        <v>0.6292991042137146</v>
       </c>
       <c r="C79" t="n">
-        <v>73.61953199553656</v>
+        <v>83.1984943607749</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EMP9225</t>
+          <t>EMP9131</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.5394923686981201</v>
+        <v>0.6166608333587646</v>
       </c>
       <c r="C80" t="n">
-        <v>81.24245295773083</v>
+        <v>84.74401619072621</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EMP9481</t>
+          <t>EMP9474</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.526817798614502</v>
+        <v>0.6184797883033752</v>
       </c>
       <c r="C81" t="n">
-        <v>77.77593091301551</v>
+        <v>91.82629854201764</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EMP9180</t>
+          <t>EMP9189</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.5048174858093262</v>
+        <v>0.5993658304214478</v>
       </c>
       <c r="C82" t="n">
-        <v>83.18612622259856</v>
+        <v>73.00605006918312</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EMP9131</t>
+          <t>EMP9341</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.588995099067688</v>
+        <v>0.5761522054672241</v>
       </c>
       <c r="C83" t="n">
-        <v>86.1834685364415</v>
+        <v>91.7256319107471</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EMP9474</t>
+          <t>EMP9497</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.5080316066741943</v>
+        <v>0.6525880694389343</v>
       </c>
       <c r="C84" t="n">
-        <v>70.50996459237942</v>
+        <v>104.9817839593519</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EMP9189</t>
+          <t>EMP9214</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.560788631439209</v>
+        <v>0.6410967111587524</v>
       </c>
       <c r="C85" t="n">
-        <v>80.71982726039765</v>
+        <v>96.51299892718026</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EMP9819</t>
+          <t>EMP9149</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.5161986351013184</v>
+        <v>0.6437033414840698</v>
       </c>
       <c r="C86" t="n">
-        <v>82.10742820170694</v>
+        <v>109.3573170137024</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EMP9341</t>
+          <t>EMP9996</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.5171048641204834</v>
+        <v>0.5003728270530701</v>
       </c>
       <c r="C87" t="n">
-        <v>81.46699745934023</v>
+        <v>64.31257573329682</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EMP9304</t>
+          <t>EMP98810</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.5489360094070435</v>
+        <v>0.5268905758857727</v>
       </c>
       <c r="C88" t="n">
-        <v>75.00893680848165</v>
+        <v>53.71960659377915</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EMP9497</t>
+          <t>EMP9228</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.6333342790603638</v>
+        <v>0.4951200187206268</v>
       </c>
       <c r="C89" t="n">
-        <v>74.41490447966592</v>
+        <v>94.38313792973958</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EMP9214</t>
+          <t>EMP9614</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.6113542914390564</v>
+        <v>0.6371972560882568</v>
       </c>
       <c r="C90" t="n">
-        <v>80.67868047415932</v>
+        <v>75.95672563161133</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EMP9069</t>
+          <t>EMP9603</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.5574430227279663</v>
+        <v>0.6492902636528015</v>
       </c>
       <c r="C91" t="n">
-        <v>72.99242921153092</v>
+        <v>107.7157168385489</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EMP9228</t>
+          <t>EMP9648</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.5217232704162598</v>
+        <v>0.4937557578086853</v>
       </c>
       <c r="C92" t="n">
-        <v>67.3137053332387</v>
+        <v>92.67449553679459</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EMP9603</t>
+          <t>EMP9711</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.5649886131286621</v>
+        <v>0.4665208160877228</v>
       </c>
       <c r="C93" t="n">
-        <v>88.4000931707196</v>
+        <v>65.34222902701593</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EMP9648</t>
+          <t>EMP9051</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.5086321830749512</v>
+        <v>0.4353118538856506</v>
       </c>
       <c r="C94" t="n">
-        <v>67.1743509618904</v>
+        <v>94.5448216074912</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EMP9701</t>
+          <t>EMP9083</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.4910157918930054</v>
+        <v>0.6329091787338257</v>
       </c>
       <c r="C95" t="n">
-        <v>74.79919319102279</v>
+        <v>92.54535952023609</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EMP9051</t>
+          <t>EMP9670</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.441070944070816</v>
+        <v>0.5848296284675598</v>
       </c>
       <c r="C96" t="n">
-        <v>84.1577465635461</v>
+        <v>101.6499371742817</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EMP9083</t>
+          <t>EMP9708</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.5795712471008301</v>
+        <v>0.5827524662017822</v>
       </c>
       <c r="C97" t="n">
-        <v>86.80243441153866</v>
+        <v>78.44315668803394</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EMP9541</t>
+          <t>EMP9885</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.5483314990997314</v>
+        <v>0.6277687549591064</v>
       </c>
       <c r="C98" t="n">
-        <v>83.93370290598287</v>
+        <v>70.21502118923077</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EMP9708</t>
+          <t>EMP9721</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.4694794416427612</v>
+        <v>0.6503074169158936</v>
       </c>
       <c r="C99" t="n">
-        <v>83.75442282802783</v>
+        <v>83.85387111703754</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>EMP9885</t>
+          <t>EMP9339</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.6120984554290771</v>
+        <v>0.5333012938499451</v>
       </c>
       <c r="C100" t="n">
-        <v>88.31225517643968</v>
+        <v>93.8310293652093</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>EMP9721</t>
+          <t>EMP9484</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.537855863571167</v>
+        <v>0.5479312539100647</v>
       </c>
       <c r="C101" t="n">
-        <v>90.17179899373218</v>
+        <v>96.37106334757814</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>EMP9339</t>
+          <t>EMP9249</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.5443210601806641</v>
+        <v>0.5079969167709351</v>
       </c>
       <c r="C102" t="n">
-        <v>71.05045265956373</v>
+        <v>104.3530264726507</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EMP9484</t>
+          <t>EMP9217</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.5325056910514832</v>
+        <v>0.6559535264968872</v>
       </c>
       <c r="C103" t="n">
-        <v>69.86794314293304</v>
+        <v>115.6846344030373</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>EMP9902</t>
+          <t>EMP9799</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.4850616455078125</v>
+        <v>0.586198627948761</v>
       </c>
       <c r="C104" t="n">
-        <v>83.03405953688384</v>
+        <v>82.31259484458157</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>EMP9387</t>
+          <t>EMP9004</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.5920058488845825</v>
+        <v>0.6379528045654297</v>
       </c>
       <c r="C105" t="n">
-        <v>79.03697069589609</v>
+        <v>95.2857565829738</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>EMP9217</t>
+          <t>EMP9162</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.5664005279541016</v>
+        <v>0.6528353691101074</v>
       </c>
       <c r="C106" t="n">
-        <v>87.85563793599943</v>
+        <v>104.4779071052514</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>EMP9004</t>
+          <t>EMP9640</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.6140501499176025</v>
+        <v>0.6451408267021179</v>
       </c>
       <c r="C107" t="n">
-        <v>74.00587186337671</v>
+        <v>80.76812343390016</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>EMP9162</t>
+          <t>EMP9138</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.5721995234489441</v>
+        <v>0.6073379516601562</v>
       </c>
       <c r="C108" t="n">
-        <v>73.85146281509996</v>
+        <v>72.28114181644921</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>EMP9640</t>
+          <t>EMP9836</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.6584877967834473</v>
+        <v>0.6233311295509338</v>
       </c>
       <c r="C109" t="n">
-        <v>83.26225527436296</v>
+        <v>81.47411150940594</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>EMP9138</t>
+          <t>EMP9982</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.4982234537601471</v>
+        <v>0.6425944566726685</v>
       </c>
       <c r="C110" t="n">
-        <v>80.88066085221007</v>
+        <v>62.15461786397359</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>EMP9836</t>
+          <t>EMP9279</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.5517734289169312</v>
+        <v>0.6298503875732422</v>
       </c>
       <c r="C111" t="n">
-        <v>72.97233058881814</v>
+        <v>93.71290933645099</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>EMP9982</t>
+          <t>EMP9795</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.5440365672111511</v>
+        <v>0.5849387049674988</v>
       </c>
       <c r="C112" t="n">
-        <v>70.13463317909887</v>
+        <v>87.23191055577711</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>EMP9279</t>
+          <t>EMP9218</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.6020534038543701</v>
+        <v>0.6000372767448425</v>
       </c>
       <c r="C113" t="n">
-        <v>92.11747638557941</v>
+        <v>80.92106591154456</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>EMP9795</t>
+          <t>EMP9645</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.5422415733337402</v>
+        <v>0.6041790843009949</v>
       </c>
       <c r="C114" t="n">
-        <v>78.25902026442024</v>
+        <v>91.77438275268989</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>EMP9218</t>
+          <t>EMP9177</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.5899127125740051</v>
+        <v>0.6003526449203491</v>
       </c>
       <c r="C115" t="n">
-        <v>62.56165681077486</v>
+        <v>100.8107565210634</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EMP9645</t>
+          <t>EMP9482</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.5964407324790955</v>
+        <v>0.6471347808837891</v>
       </c>
       <c r="C116" t="n">
-        <v>89.98802847818158</v>
+        <v>97.52966767296738</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EMP9635</t>
+          <t>EMP9947</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.4586111307144165</v>
+        <v>0.4996267855167389</v>
       </c>
       <c r="C117" t="n">
-        <v>75.07228109578338</v>
+        <v>71.42081406149654</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>EMP9482</t>
+          <t>EMP9647</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.4774423837661743</v>
+        <v>0.598631739616394</v>
       </c>
       <c r="C118" t="n">
-        <v>87.55374667437819</v>
+        <v>99.9609017012131</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EMP9947</t>
+          <t>EMP9649</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.5479335784912109</v>
+        <v>0.5394271016120911</v>
       </c>
       <c r="C119" t="n">
-        <v>85.06035003364889</v>
+        <v>63.14315735340931</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EMP9647</t>
+          <t>EMP9765</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.5994905233383179</v>
+        <v>0.6626483798027039</v>
       </c>
       <c r="C120" t="n">
-        <v>77.7272714155813</v>
+        <v>84.91665766949541</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EMP9649</t>
+          <t>EMP9824</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.5730986595153809</v>
+        <v>0.5399830341339111</v>
       </c>
       <c r="C121" t="n">
-        <v>72.43128782303344</v>
+        <v>77.663398750174</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>EMP9904</t>
+          <t>EMP9855</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.5841282606124878</v>
+        <v>0.513590931892395</v>
       </c>
       <c r="C122" t="n">
-        <v>71.92404191316183</v>
+        <v>94.92550012431199</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EMP9824</t>
+          <t>EMP9659</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.5592012405395508</v>
+        <v>0.6313239932060242</v>
       </c>
       <c r="C123" t="n">
-        <v>73.78856975510556</v>
+        <v>88.48810862211347</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EMP9855</t>
+          <t>EMP9270</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.5710700750350952</v>
+        <v>0.5798293352127075</v>
       </c>
       <c r="C124" t="n">
-        <v>71.60042590146981</v>
+        <v>98.09319307199975</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EMP9659</t>
+          <t>EMP9973</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.5940492153167725</v>
+        <v>0.5074582695960999</v>
       </c>
       <c r="C125" t="n">
-        <v>74.29460471836452</v>
+        <v>87.93579313221137</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EMP9973</t>
+          <t>EMP9525</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.5486093163490295</v>
+        <v>0.5400161743164062</v>
       </c>
       <c r="C126" t="n">
-        <v>73.86592515183905</v>
+        <v>60.33416900213575</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>EMP9525</t>
+          <t>EMP9435</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.5579942464828491</v>
+        <v>0.6593829989433289</v>
       </c>
       <c r="C127" t="n">
-        <v>67.56406095043468</v>
+        <v>97.2698735087164</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EMP9435</t>
+          <t>EMP9606</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.5857390165328979</v>
+        <v>0.5868260860443115</v>
       </c>
       <c r="C128" t="n">
-        <v>77.44398945253994</v>
+        <v>108.3695625176555</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EMP9503</t>
+          <t>EMP9663</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.6053991317749023</v>
+        <v>0.5902484059333801</v>
       </c>
       <c r="C129" t="n">
-        <v>63.67979585654835</v>
+        <v>90.7757026114581</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>EMP9216</t>
+          <t>EMP9695</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.6013357639312744</v>
+        <v>0.5900819301605225</v>
       </c>
       <c r="C130" t="n">
-        <v>72.97466616196553</v>
+        <v>81.57800668836714</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>EMP9293</t>
+          <t>EMP9216</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.5855913162231445</v>
+        <v>0.6414768695831299</v>
       </c>
       <c r="C131" t="n">
-        <v>74.65108001601013</v>
+        <v>84.23968180720652</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>EMP9183</t>
+          <t>EMP9293</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.5231282711029053</v>
+        <v>0.6286449432373047</v>
       </c>
       <c r="C132" t="n">
-        <v>78.01022138956839</v>
+        <v>86.01172349809593</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>EMP9054</t>
+          <t>EMP9183</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.5215538740158081</v>
+        <v>0.6539729237556458</v>
       </c>
       <c r="C133" t="n">
-        <v>86.27191670394824</v>
+        <v>89.45630366834048</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>EMP9997</t>
+          <t>EMP9656</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.6049075126647949</v>
+        <v>0.5564670562744141</v>
       </c>
       <c r="C134" t="n">
-        <v>82.65476982786861</v>
+        <v>83.80008779933958</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>EMP9874</t>
+          <t>EMP9054</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.5944492816925049</v>
+        <v>0.6068638563156128</v>
       </c>
       <c r="C135" t="n">
-        <v>78.3203607107864</v>
+        <v>85.83832076643181</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EMP9340</t>
+          <t>EMP9997</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.5272696018218994</v>
+        <v>0.6663317680358887</v>
       </c>
       <c r="C136" t="n">
-        <v>68.45247647910446</v>
+        <v>82.40546429192385</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>EMP9527</t>
+          <t>EMP9340</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.6435666084289551</v>
+        <v>0.5467116236686707</v>
       </c>
       <c r="C137" t="n">
-        <v>77.13586572231159</v>
+        <v>72.81848405734723</v>
       </c>
     </row>
     <row r="138">
@@ -2225,10 +2225,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.5056127309799194</v>
+        <v>0.5577454566955566</v>
       </c>
       <c r="C138" t="n">
-        <v>88.31706680062405</v>
+        <v>83.41815710774085</v>
       </c>
     </row>
     <row r="139">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.5813015699386597</v>
+        <v>0.6417571902275085</v>
       </c>
       <c r="C139" t="n">
-        <v>79.45081533676506</v>
+        <v>86.57519487437119</v>
       </c>
     </row>
     <row r="140">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.5407014489173889</v>
+        <v>0.62321937084198</v>
       </c>
       <c r="C140" t="n">
-        <v>87.36025758376856</v>
+        <v>110.0484669396853</v>
       </c>
     </row>
     <row r="141">
@@ -2264,10 +2264,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.5276563763618469</v>
+        <v>0.7007288932800293</v>
       </c>
       <c r="C141" t="n">
-        <v>83.25150864019176</v>
+        <v>76.91505941770585</v>
       </c>
     </row>
     <row r="142">
@@ -2277,231 +2277,231 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.5183013677597046</v>
+        <v>0.539635181427002</v>
       </c>
       <c r="C142" t="n">
-        <v>65.4460950308117</v>
+        <v>74.89005411335602</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>EMP9583</t>
+          <t>EMP9115</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.5308735966682434</v>
+        <v>0.5632081031799316</v>
       </c>
       <c r="C143" t="n">
-        <v>61.71302198012101</v>
+        <v>73.84925597759479</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>EMP9323</t>
+          <t>EMP9583</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.5209733247756958</v>
+        <v>0.6263194680213928</v>
       </c>
       <c r="C144" t="n">
-        <v>81.12076626199641</v>
+        <v>95.39718776742966</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>EMP9750</t>
+          <t>EMP9323</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.5328817963600159</v>
+        <v>0.5753966569900513</v>
       </c>
       <c r="C145" t="n">
-        <v>70.62225447564177</v>
+        <v>84.15015252484893</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>EMP9038</t>
+          <t>EMP9750</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.6072375178337097</v>
+        <v>0.5554367899894714</v>
       </c>
       <c r="C146" t="n">
-        <v>85.67838571815071</v>
+        <v>83.39930272412003</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>EMP9646</t>
+          <t>EMP9866</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.6180980205535889</v>
+        <v>0.5796414613723755</v>
       </c>
       <c r="C147" t="n">
-        <v>89.12019996898276</v>
+        <v>103.337613383209</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>EMP9125</t>
+          <t>EMP9038</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.538041353225708</v>
+        <v>0.6120546460151672</v>
       </c>
       <c r="C148" t="n">
-        <v>82.02526803486796</v>
+        <v>70.38672313659787</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>EMP9286</t>
+          <t>EMP9297</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.5444265604019165</v>
+        <v>0.6817898154258728</v>
       </c>
       <c r="C149" t="n">
-        <v>79.43430120812178</v>
+        <v>84.05499338508341</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>EMP9463</t>
+          <t>EMP9646</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.5359511971473694</v>
+        <v>0.6549761891365051</v>
       </c>
       <c r="C150" t="n">
-        <v>74.48089931641974</v>
+        <v>96.7393648982526</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>EMP9681</t>
+          <t>EMP9286</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.5687158107757568</v>
+        <v>0.5756751298904419</v>
       </c>
       <c r="C151" t="n">
-        <v>81.22692700090651</v>
+        <v>71.25406512178022</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>EMP9863</t>
+          <t>EMP9463</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.6396547555923462</v>
+        <v>0.6105802059173584</v>
       </c>
       <c r="C152" t="n">
-        <v>90.20987194534675</v>
+        <v>84.72867794711654</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>EMP9957</t>
+          <t>EMP9863</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.6360770463943481</v>
+        <v>0.6623169779777527</v>
       </c>
       <c r="C153" t="n">
-        <v>69.18738301147377</v>
+        <v>93.85028808871905</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>EMP9899</t>
+          <t>EMP9957</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.5902040600776672</v>
+        <v>0.6408289074897766</v>
       </c>
       <c r="C154" t="n">
-        <v>65.90541572985289</v>
+        <v>75.62983824471961</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>EMP9107</t>
+          <t>EMP9899</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.6213332414627075</v>
+        <v>0.5419023036956787</v>
       </c>
       <c r="C155" t="n">
-        <v>84.90536617638131</v>
+        <v>92.14018730669888</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>EMP9935</t>
+          <t>EMP9294</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.5715404748916626</v>
+        <v>0.6525574326515198</v>
       </c>
       <c r="C156" t="n">
-        <v>71.94999502285611</v>
+        <v>88.5325231926069</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>EMP9455</t>
+          <t>EMP9422</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.5677448511123657</v>
+        <v>0.5766087770462036</v>
       </c>
       <c r="C157" t="n">
-        <v>61.89593119692437</v>
+        <v>93.960558703755</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>EMP9668</t>
+          <t>EMP9568</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.5596878528594971</v>
+        <v>0.4774242341518402</v>
       </c>
       <c r="C158" t="n">
-        <v>79.05847308310095</v>
+        <v>96.53350473486007</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>EMP9918</t>
+          <t>EMP9926</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.4815366566181183</v>
+        <v>0.6132348775863647</v>
       </c>
       <c r="C159" t="n">
-        <v>77.14935768888746</v>
+        <v>70.49113802185632</v>
       </c>
     </row>
     <row r="160">
@@ -2511,101 +2511,101 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.5496299862861633</v>
+        <v>0.5143576264381409</v>
       </c>
       <c r="C160" t="n">
-        <v>65.53801369638501</v>
+        <v>81.36628163040871</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>EMP9305</t>
+          <t>EMP9729</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.5236902236938477</v>
+        <v>0.6136065721511841</v>
       </c>
       <c r="C161" t="n">
-        <v>85.65145192647896</v>
+        <v>83.8814972542576</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>EMP9729</t>
+          <t>EMP9524</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.5563192963600159</v>
+        <v>0.5467502474784851</v>
       </c>
       <c r="C162" t="n">
-        <v>85.8181139459703</v>
+        <v>69.09114371132627</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>EMP9425</t>
+          <t>EMP9636</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.4708399176597595</v>
+        <v>0.7061544060707092</v>
       </c>
       <c r="C163" t="n">
-        <v>66.39129831173518</v>
+        <v>81.95788815135364</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>EMP9636</t>
+          <t>EMP9869</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.5822713375091553</v>
+        <v>0.5664461851119995</v>
       </c>
       <c r="C164" t="n">
-        <v>83.37436085415791</v>
+        <v>69.96797051472167</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>EMP9869</t>
+          <t>EMP9698</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.5029038786888123</v>
+        <v>0.6045044660568237</v>
       </c>
       <c r="C165" t="n">
-        <v>71.24882384370171</v>
+        <v>82.27801768831723</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>EMP9428</t>
+          <t>EMP9545</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.5037153959274292</v>
+        <v>0.5057594776153564</v>
       </c>
       <c r="C166" t="n">
-        <v>77.96957474838068</v>
+        <v>90.10895115579959</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>EMP9545</t>
+          <t>EMP9746</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.5328948497772217</v>
+        <v>0.5707718133926392</v>
       </c>
       <c r="C167" t="n">
-        <v>71.96784773881136</v>
+        <v>106.9346396860601</v>
       </c>
     </row>
     <row r="168">
@@ -2615,10 +2615,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.6120114326477051</v>
+        <v>0.6546231508255005</v>
       </c>
       <c r="C168" t="n">
-        <v>84.2727374420094</v>
+        <v>69.18802359251983</v>
       </c>
     </row>
     <row r="169">
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.5554492473602295</v>
+        <v>0.6102017164230347</v>
       </c>
       <c r="C169" t="n">
-        <v>90.90905689302095</v>
+        <v>89.3991899980913</v>
       </c>
     </row>
     <row r="170">
@@ -2641,10 +2641,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.5348052978515625</v>
+        <v>0.6126572489738464</v>
       </c>
       <c r="C170" t="n">
-        <v>82.34065345028574</v>
+        <v>91.8383258182202</v>
       </c>
     </row>
     <row r="171">
@@ -2654,10 +2654,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.6112536787986755</v>
+        <v>0.6019452810287476</v>
       </c>
       <c r="C171" t="n">
-        <v>70.59210353878537</v>
+        <v>66.3033495522844</v>
       </c>
     </row>
     <row r="172">
@@ -2667,10 +2667,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.5608322620391846</v>
+        <v>0.5972946882247925</v>
       </c>
       <c r="C172" t="n">
-        <v>76.21296096610837</v>
+        <v>79.30743459563068</v>
       </c>
     </row>
     <row r="173">
@@ -2680,10 +2680,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.5646005868911743</v>
+        <v>0.6314605474472046</v>
       </c>
       <c r="C173" t="n">
-        <v>75.77131212577396</v>
+        <v>101.903106823381</v>
       </c>
     </row>
     <row r="174">
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.5614092350006104</v>
+        <v>0.6492284536361694</v>
       </c>
       <c r="C174" t="n">
-        <v>85.21404214228539</v>
+        <v>92.62026230524106</v>
       </c>
     </row>
     <row r="175">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.569410502910614</v>
+        <v>0.6245706677436829</v>
       </c>
       <c r="C175" t="n">
-        <v>77.70508435343662</v>
+        <v>69.46674749713085</v>
       </c>
     </row>
     <row r="176">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.5855008363723755</v>
+        <v>0.4895086884498596</v>
       </c>
       <c r="C176" t="n">
-        <v>86.79612537674366</v>
+        <v>95.71035749322148</v>
       </c>
     </row>
     <row r="177">
@@ -2732,10 +2732,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.6366690993309021</v>
+        <v>0.6511590480804443</v>
       </c>
       <c r="C177" t="n">
-        <v>81.0577365088602</v>
+        <v>84.29213660909976</v>
       </c>
     </row>
     <row r="178">
@@ -2745,114 +2745,114 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.5958989858627319</v>
+        <v>0.6243528127670288</v>
       </c>
       <c r="C178" t="n">
-        <v>65.56998761288381</v>
+        <v>103.1786479913242</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>EMP9595</t>
+          <t>EMP9845</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.5899102687835693</v>
+        <v>0.5525029897689819</v>
       </c>
       <c r="C179" t="n">
-        <v>71.96900660518776</v>
+        <v>77.12499199282604</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>EMP9845</t>
+          <t>EMP9683</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.5816590785980225</v>
+        <v>0.4990001916885376</v>
       </c>
       <c r="C180" t="n">
-        <v>89.69005460202203</v>
+        <v>48.22133944437692</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>EMP9705</t>
+          <t>EMP9671</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.5261073708534241</v>
+        <v>0.5243978500366211</v>
       </c>
       <c r="C181" t="n">
-        <v>75.12306206020961</v>
+        <v>90.65159844115325</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>EMP9671</t>
+          <t>EMP9367</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.5460583567619324</v>
+        <v>0.5551864504814148</v>
       </c>
       <c r="C182" t="n">
-        <v>58.92898359150656</v>
+        <v>83.6050183673687</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>EMP9367</t>
+          <t>EMP9549</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.5007798671722412</v>
+        <v>0.6077376008033752</v>
       </c>
       <c r="C183" t="n">
-        <v>85.74694488490647</v>
+        <v>73.42320515594059</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>EMP9549</t>
+          <t>EMP9900</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.5770190954208374</v>
+        <v>0.6517874002456665</v>
       </c>
       <c r="C184" t="n">
-        <v>88.93555374392497</v>
+        <v>94.70418117817371</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>EMP9900</t>
+          <t>EMP9850</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.5738635063171387</v>
+        <v>0.5174126625061035</v>
       </c>
       <c r="C185" t="n">
-        <v>78.97899403062004</v>
+        <v>77.1906193520265</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>EMP9850</t>
+          <t>EMP9903</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.5400518178939819</v>
+        <v>0.6432492136955261</v>
       </c>
       <c r="C186" t="n">
-        <v>65.6639485355646</v>
+        <v>86.08408745561536</v>
       </c>
     </row>
     <row r="187">
@@ -2862,88 +2862,88 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.5200763940811157</v>
+        <v>0.52701735496521</v>
       </c>
       <c r="C187" t="n">
-        <v>66.56938077441797</v>
+        <v>78.51895944981148</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>EMP9700</t>
+          <t>EMP9026</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.5712732076644897</v>
+        <v>0.4318162202835083</v>
       </c>
       <c r="C188" t="n">
-        <v>70.61124947550022</v>
+        <v>99.80058689825501</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>EMP9026</t>
+          <t>EMP9920</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.4825476408004761</v>
+        <v>0.5615931153297424</v>
       </c>
       <c r="C189" t="n">
-        <v>76.45373242202164</v>
+        <v>93.04227896499191</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>EMP9920</t>
+          <t>EMP9127</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.4904919266700745</v>
+        <v>0.4709517657756805</v>
       </c>
       <c r="C190" t="n">
-        <v>77.20514353273788</v>
+        <v>88.81374870719466</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>EMP9127</t>
+          <t>EMP9686</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.5146455764770508</v>
+        <v>0.5623965263366699</v>
       </c>
       <c r="C191" t="n">
-        <v>85.75885792888266</v>
+        <v>95.08589304720871</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>EMP9686</t>
+          <t>EMP9511</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.548198938369751</v>
+        <v>0.5980563759803772</v>
       </c>
       <c r="C192" t="n">
-        <v>69.58739612749693</v>
+        <v>94.31804693516182</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>EMP9511</t>
+          <t>EMP9086</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.5793179869651794</v>
+        <v>0.5789833068847656</v>
       </c>
       <c r="C193" t="n">
-        <v>76.71609932087088</v>
+        <v>69.31717867716601</v>
       </c>
     </row>
   </sheetData>
